--- a/demo/triangle.xlsx
+++ b/demo/triangle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6947" windowHeight="9155"/>
+    <workbookView windowWidth="10848" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>健壮性边界值分析</t>
   </si>
@@ -28,6 +28,84 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>弱健壮等价类测试</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>预期输出</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>等边三角形</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>等腰三角形</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>非等腰三角形</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>非三角形</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>a不在取值范围内</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>a不能为0</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>b不在取值范围内</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>b不能为0</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>c不在取值范围内</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>c不能为0</t>
   </si>
 </sst>
 </file>
@@ -35,12 +113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,19 +130,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,7 +150,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,6 +209,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -101,6 +225,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -109,53 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,37 +270,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -209,79 +280,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,103 +430,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +498,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -438,24 +533,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,21 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -500,159 +562,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1005,20 +1079,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -1240,9 +1320,255 @@
         <v>50</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>3.3</v>
+      </c>
+      <c r="C26">
+        <v>3.3</v>
+      </c>
+      <c r="D26">
+        <v>4.4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>25.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>101</v>
+      </c>
+      <c r="C30">
+        <v>3.3</v>
+      </c>
+      <c r="D30">
+        <v>3.3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>5.4</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>-2</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>103</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>10.3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>2.5</v>
+      </c>
+      <c r="D35">
+        <v>-5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>19.3</v>
+      </c>
+      <c r="C36">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>25.1</v>
+      </c>
+      <c r="C37">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
